--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -451,687 +451,923 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009973</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>008909</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>创金合信鑫益混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>87.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>008910</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>创金合信鑫益混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>87.60</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009974</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>40.74</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009973</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信核心资产混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009974</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005043</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005044</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>860006</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>860055</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合B</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>860056</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001056</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>84.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008893</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>创金合信鑫利混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>38.68</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008894</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信鑫利混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>38.68</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004075</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>交银施罗德医药创新股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004112</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>创金合信国企活力混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1398,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,25 +1428,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>005453</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>前海开源医疗健康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.99</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1210,25 +1466,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>005454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>前海开源医疗健康灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,25 +1504,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,26 +1542,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006818</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票A</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.90</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1580,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006819</t>
+          <t>010585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票C</t>
+          <t>创金合信医药消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.90</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1322,25 +1618,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010585</t>
+          <t>005739</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票A</t>
+          <t>富国转型机遇混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,26 +1656,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010586</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票C</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1378,25 +1694,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1416,15 +1742,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>34.41</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1434,25 +1770,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>010586</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>创金合信医药消费股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1472,15 +1818,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>82.77</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.48</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1490,26 +1846,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>009502</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>国寿安保创新医药股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1884,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005453</t>
+          <t>009005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合A</t>
+          <t>创金合信鑫祺混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>74.59</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1922,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005454</t>
+          <t>005044</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合C</t>
+          <t>国寿安保健康科学混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>74.59</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1960,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>006818</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>安信盈利驱动股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1612,15 +2008,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>29.96</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1630,26 +2036,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2074,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>006819</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>安信盈利驱动股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2112,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>009503</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>国寿安保创新医药股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2150,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009502</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票A</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2188,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009503</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票C</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2223,4 +2224,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2584,4 +2585,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8823</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2945,4 +2946,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2954,7 +2955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,17 +2966,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2985,14 +3006,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.58</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3001,14 +3044,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3017,14 +3082,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.32</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3033,13 +3120,2049 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5860</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6832</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6454</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5061,7 +5062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5072,17 +5073,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5092,14 +5113,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.2</v>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5108,14 +5151,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.58</v>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5124,14 +5189,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.16</v>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5140,14 +5227,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.32</v>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5156,13 +5265,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5460,7 +5461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5471,17 +5472,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5491,14 +5512,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5507,14 +5550,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.2</v>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5523,14 +5588,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.58</v>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5539,14 +5626,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.16</v>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5555,14 +5664,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.32</v>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5571,13 +5702,1057 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>4.58</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.16</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6.32</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.32</v>
       </c>
     </row>
@@ -600,6 +617,1840 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1757,7 +3608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +4006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4254,366 +6105,6 @@
       </c>
       <c r="H55" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519697</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银优势行业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8576</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519712</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银阿尔法核心混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7631</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德持续成长主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8823</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008443</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>59.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008444</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>59.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004222</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信民旺债券A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004402</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信民旺债券C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4678,36 +6169,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>57.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>76.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5271</t>
+          <t>1.8576</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4716,36 +6207,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010585</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票A</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>56.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>77.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>1.7631</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4754,36 +6245,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>87.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2166</t>
+          <t>0.8823</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4792,36 +6283,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>008443</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>九泰动态策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>59.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0610</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4830,36 +6321,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010586</t>
+          <t>008444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票C</t>
+          <t>九泰动态策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>59.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4868,36 +6359,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -4906,36 +6397,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010597</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合A</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36.98</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -4944,36 +6435,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010598</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合C</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.98</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4982,6 +6473,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5835,7 +7686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
+++ b/数据整理/stocks/A股/上证主板/600529-山东药玻.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>8.300000000000001</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>35.2</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>4.58</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>6.32</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,956 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009973</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009974</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1560,1498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2450,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3608,7 +6043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4006,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6105,366 +8540,6 @@
       </c>
       <c r="H55" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519697</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银优势行业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8576</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519712</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银阿尔法核心混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7631</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德持续成长主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8823</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008443</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>59.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008444</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>59.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004222</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信民旺债券A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004402</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信民旺债券C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6529,36 +8604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>57.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>76.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5271</t>
+          <t>1.8576</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6567,36 +8642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010585</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票A</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>56.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>77.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>1.7631</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6605,36 +8680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>87.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2166</t>
+          <t>0.8823</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6643,36 +8718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>008443</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>九泰动态策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>59.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0610</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6681,36 +8756,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010586</t>
+          <t>008444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票C</t>
+          <t>九泰动态策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>59.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6719,36 +8794,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -6757,36 +8832,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010597</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合A</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36.98</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -6795,36 +8870,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010598</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合C</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.98</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6833,6 +8908,366 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7684,930 +10119,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0350</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004075</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德医药创新股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7304</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009973</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信核心资产混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3310</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3103</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008909</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008893</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信鑫利混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0834</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>860006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>860055</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合B</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0745</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001056</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>84.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005043</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005044</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008910</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004112</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>创金合信国企活力混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008894</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信鑫利混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>38.68</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009974</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>创金合信核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>860056</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>